--- a/classfiers/bottleneck/svm/smote/bottleneck-svm-poly-results.xlsx
+++ b/classfiers/bottleneck/svm/smote/bottleneck-svm-poly-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4974093264248705</v>
+        <v>0.7172413793103448</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8930232558139535</v>
+        <v>0.9674418604651163</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6389351081530782</v>
+        <v>0.8237623762376238</v>
       </c>
       <c r="E2" t="n">
-        <v>0.449902195174962</v>
+        <v>0.8932612222823147</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6239067055393586</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.9627906976744186</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7684021543985637</v>
+        <v>0.9810426540284359</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7458378613344925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.654434250764526</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9534883720930233</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7911275415896488</v>
+        <v>0.9761904761904763</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7966416280897894</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5384615384615384</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8504672897196262</v>
+        <v>0.9627906976744186</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6594202898550725</v>
+        <v>0.9810426540284359</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4888636562145166</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4810126582278481</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8878504672897196</v>
+        <v>0.9395348837209302</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6239737274220033</v>
+        <v>0.9688249400479616</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3038911695344572</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5590448958836283</v>
+        <v>0.9434482758620689</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9262682025646598</v>
+        <v>0.9572093023255814</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6963717642836733</v>
+        <v>0.9461726201065866</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5570273020696436</v>
+        <v>0.9786522444564628</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/bottleneck/svm/smote/bottleneck-svm-poly-results.xlsx
+++ b/classfiers/bottleneck/svm/smote/bottleneck-svm-poly-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7172413793103448</v>
+        <v>0.7132867132867133</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9674418604651163</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8237623762376238</v>
+        <v>0.8326530612244898</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8932612222823147</v>
+        <v>0.9051724137931035</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9627906976744186</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9810426540284359</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -508,10 +508,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9534883720930233</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9761904761904763</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -527,10 +527,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9627906976744186</v>
+        <v>0.9950738916256158</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9810426540284359</v>
+        <v>0.9975308641975309</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -546,10 +546,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9395348837209302</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9688249400479616</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9434482758620689</v>
+        <v>0.9426573426573427</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9572093023255814</v>
+        <v>0.9990147783251231</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9461726201065866</v>
+        <v>0.9660367850844042</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9786522444564628</v>
+        <v>0.9810344827586206</v>
       </c>
     </row>
   </sheetData>
